--- a/uploads/relatorio_envios.xlsx
+++ b/uploads/relatorio_envios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,173 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-09-01 10:18:11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5516996039875</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>whatsapp_web</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bom dia, aqui é a Zhaz Soluções e estamos validando como está o andamento dos coletores no MDM.
+Loja 73 - Presidente Prudente
+Regional: SP INTERIOR
+⚠️ Pendências encontradas no rollout:
+- RECEBIMENTO • Skorpio X5: 0% (Físico: 4.0, Ativo: 0, Pendentes: 4.0 )
+Pode nos retornar como estão os coletores pendentes?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-09-01 11:52:53</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>73</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Presidente Prudente</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SP INTERIOR</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5516996039875</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>whatsapp_web</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bom dia, aqui é a Zhaz Soluções e estamos validando como está o andamento dos coletores no MDM.
+Loja 73 - Presidente Prudente
+Regional: SP INTERIOR
+⚠️ Pendências encontradas no rollout:
+- RECEBIMENTO • Skorpio X5: 0% (Físico: 4.0, Ativo: 0, Pendentes: 4.0 )
+Pode nos retornar como estão os coletores pendentes?</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-09-02 09:07:37</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>73</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Presidente Prudente</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SP INTERIOR</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5516996039875</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>whatsapp_web</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bom dia, aqui é a Zhaz Soluções e estamos validando como está o andamento dos coletores no MDM URMOBO.
+Loja 73 - Presidente Prudente
+Regional: SP INTERIOR
+⚠️ Pendências encontradas no rollout:
+- RECEBIMENTO • Skorpio X5: 0% (Físico: 4.0, Ativo: 0, Pendentes: 4.0 )
+Pode nos retornar como estão os coletores pendentes?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-09-04 16:15:41</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Itaquera </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SP CAPITAL</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5511950908269</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>whatsapp_web</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>registrado</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bom dia, aqui é a Zhaz Soluções e estamos validando como está o andamento dos coletores no MDM URMOBO.
+Loja 19 - Itaquera 
+Regional: SP CAPITAL
+⚠️ Campos não preenchidos:
+- RECEBIMENTO • nan: não preenchido
+⚠️ Pendências encontradas no rollout:
+- COLETORES LOJA • Joya A6: 0% (Físico: 10, Ativo: 0, Pendentes: 10)
+Resumo de pendências: Loja: 0 | Recebimento: 0 | Total: 0
+Pode nos retornar como estão os coletores pendentes / não preenchidos?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
